--- a/Data-Expertise scientifique et technique/Carte des acteurs.xlsx
+++ b/Data-Expertise scientifique et technique/Carte des acteurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="12380" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="165">
   <si>
     <t xml:space="preserve">Acteur </t>
   </si>
@@ -466,6 +466,69 @@
   </si>
   <si>
     <t>CF p 13 poly</t>
+  </si>
+  <si>
+    <t>Société civile</t>
+  </si>
+  <si>
+    <t>Mouvement Français pour un revenu de base</t>
+  </si>
+  <si>
+    <t>Un robot ne peut pas être auteur d'un crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cour de Cassasion </t>
+  </si>
+  <si>
+    <t>Politique et droit</t>
+  </si>
+  <si>
+    <t>Presse et média</t>
+  </si>
+  <si>
+    <t>Sciences humaines</t>
+  </si>
+  <si>
+    <t>Deep Knowledge Ventures</t>
+  </si>
+  <si>
+    <t>supression des emplois qualifiés</t>
+  </si>
+  <si>
+    <t>Partie communiste français</t>
+  </si>
+  <si>
+    <t>menace pour la classe moyenne</t>
+  </si>
+  <si>
+    <t>Syndicat américain</t>
+  </si>
+  <si>
+    <t>Revenu universelle est nécessaire: il faut travailler moins</t>
+  </si>
+  <si>
+    <t>Olivier Auber</t>
+  </si>
+  <si>
+    <t>Les robots et l'IA signe la mort du capitalisme</t>
+  </si>
+  <si>
+    <t>Benoît Hamon</t>
+  </si>
+  <si>
+    <t>Pour le revenu universel</t>
+  </si>
+  <si>
+    <t>Coévolution</t>
+  </si>
+  <si>
+    <t>Impact sur le chômage</t>
+  </si>
+  <si>
+    <t>Métiers touchés</t>
+  </si>
+  <si>
+    <t>Responsabilité juridique</t>
   </si>
 </sst>
 </file>
@@ -643,7 +706,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -744,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1134,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1828,8 +1894,178 @@
         <v>94</v>
       </c>
     </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="37"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="38"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:12" ht="30">
+      <c r="A29" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="37"/>
+      <c r="B30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="38"/>
+      <c r="B31" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:10" ht="30">
+      <c r="A33" s="37"/>
+      <c r="B33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="38"/>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="36"/>
+      <c r="B35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="37"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="38"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="A23:A25"/>
